--- a/resources/refine/pduplicates.xlsx
+++ b/resources/refine/pduplicates.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11346" uniqueCount="2737">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11349" uniqueCount="2740">
   <si>
     <t>term</t>
   </si>
@@ -5933,7 +5933,7 @@
     <t>["28" "78" "4"]</t>
   </si>
   <si>
-    <t>target of rapamycin </t>
+    <t>target of rapamycin</t>
   </si>
   <si>
     <t>refractory</t>
@@ -8225,7 +8225,16 @@
     <t>ubiquitin ub</t>
   </si>
   <si>
+    <t>TRUE</t>
+  </si>
+  <si>
+    <t>FALSE</t>
+  </si>
+  <si>
     <t>TODO</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
   </si>
 </sst>
 </file>
@@ -8234,13 +8243,14 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
-    <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -8257,6 +8267,11 @@
       <name val="Arial"/>
       <family val="0"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -8266,12 +8281,33 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
@@ -8300,7 +8336,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -8325,8 +8361,32 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -8347,14 +8407,14 @@
     <tabColor rgb="FFFFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F5649"/>
+  <dimension ref="A1:F5650"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="162" zoomScaleNormal="162" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B5632" activePane="bottomRight" state="frozen"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="91" zoomScaleNormal="91" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B5642" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A5632" activeCellId="0" sqref="A5632"/>
-      <selection pane="bottomRight" activeCell="A5638" activeCellId="0" sqref="A5638"/>
+      <selection pane="bottomLeft" activeCell="A5642" activeCellId="0" sqref="A5642"/>
+      <selection pane="bottomRight" activeCell="C5648" activeCellId="0" sqref="C5648"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -70621,33 +70681,48 @@
       <c r="B5645" s="0" t="s">
         <v>722</v>
       </c>
-      <c r="C5645" s="4"/>
+      <c r="C5645" s="4" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5646" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5646" s="0"/>
+      <c r="C5646" s="0"/>
     </row>
     <row r="5647" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5647" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="C5647" s="3" t="n">
+      <c r="B5647" s="6" t="s">
+        <v>2736</v>
+      </c>
+      <c r="C5647" s="7" t="n">
         <f aca="false">COUNTIF(C2:C5645,"=1")</f>
         <v>175</v>
       </c>
     </row>
     <row r="5648" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5648" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="C5648" s="3" t="n">
+      <c r="B5648" s="8" t="s">
+        <v>2737</v>
+      </c>
+      <c r="C5648" s="9" t="n">
         <f aca="false">COUNTIF(C2:C5645,"=-1")</f>
-        <v>3301</v>
+        <v>3302</v>
       </c>
     </row>
     <row r="5649" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5649" s="2" t="s">
-        <v>2736</v>
-      </c>
-      <c r="C5649" s="3" t="n">
+      <c r="B5649" s="10" t="s">
+        <v>2738</v>
+      </c>
+      <c r="C5649" s="9" t="n">
         <f aca="false">COUNTIF(C2:C5645,"=0")</f>
         <v>2167</v>
+      </c>
+    </row>
+    <row r="5650" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5650" s="11" t="s">
+        <v>2739</v>
+      </c>
+      <c r="C5650" s="12" t="n">
+        <f aca="false">SUM(C5647:C5649)</f>
+        <v>5644</v>
       </c>
     </row>
   </sheetData>
